--- a/Team-Data/2007-08/3-31-2007-08.xlsx
+++ b/Team-Data/2007-08/3-31-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,85 +733,85 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E2" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
         <v>40</v>
       </c>
       <c r="G2" t="n">
-        <v>0.459</v>
+        <v>0.452</v>
       </c>
       <c r="H2" t="n">
         <v>48.4</v>
       </c>
       <c r="I2" t="n">
-        <v>36</v>
+        <v>35.9</v>
       </c>
       <c r="J2" t="n">
         <v>79.59999999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>0.452</v>
+        <v>0.45</v>
       </c>
       <c r="L2" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="M2" t="n">
-        <v>12.9</v>
+        <v>12.7</v>
       </c>
       <c r="N2" t="n">
-        <v>0.354</v>
+        <v>0.352</v>
       </c>
       <c r="O2" t="n">
         <v>21.1</v>
       </c>
       <c r="P2" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.774</v>
+        <v>0.772</v>
       </c>
       <c r="R2" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="S2" t="n">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="T2" t="n">
-        <v>42.2</v>
+        <v>42.4</v>
       </c>
       <c r="U2" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="V2" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W2" t="n">
         <v>7.4</v>
       </c>
       <c r="X2" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Y2" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Z2" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AA2" t="n">
         <v>21.9</v>
       </c>
       <c r="AB2" t="n">
-        <v>97.59999999999999</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="AC2" t="n">
-        <v>-1.6</v>
+        <v>-1.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AE2" t="n">
         <v>18</v>
@@ -756,10 +823,10 @@
         <v>18</v>
       </c>
       <c r="AH2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ2" t="n">
         <v>23</v>
@@ -774,10 +841,10 @@
         <v>28</v>
       </c>
       <c r="AN2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP2" t="n">
         <v>7</v>
@@ -786,7 +853,7 @@
         <v>7</v>
       </c>
       <c r="AR2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS2" t="n">
         <v>20</v>
@@ -798,7 +865,7 @@
         <v>12</v>
       </c>
       <c r="AV2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AW2" t="n">
         <v>14</v>
@@ -807,16 +874,16 @@
         <v>3</v>
       </c>
       <c r="AY2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ2" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC2" t="n">
         <v>18</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-31-2007-08</t>
+          <t>2008-03-31</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>10.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -965,7 +1032,7 @@
         <v>9</v>
       </c>
       <c r="AQ3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR3" t="n">
         <v>24</v>
@@ -974,7 +1041,7 @@
         <v>9</v>
       </c>
       <c r="AT3" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AU3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-31-2007-08</t>
+          <t>2008-03-31</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E4" t="n">
         <v>28</v>
       </c>
       <c r="F4" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G4" t="n">
-        <v>0.378</v>
+        <v>0.384</v>
       </c>
       <c r="H4" t="n">
         <v>48.5</v>
@@ -1048,7 +1115,7 @@
         <v>35.7</v>
       </c>
       <c r="J4" t="n">
-        <v>79.8</v>
+        <v>79.7</v>
       </c>
       <c r="K4" t="n">
         <v>0.447</v>
@@ -1057,19 +1124,19 @@
         <v>6.5</v>
       </c>
       <c r="M4" t="n">
-        <v>17.7</v>
+        <v>17.6</v>
       </c>
       <c r="N4" t="n">
-        <v>0.366</v>
+        <v>0.367</v>
       </c>
       <c r="O4" t="n">
         <v>18.1</v>
       </c>
       <c r="P4" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.71</v>
+        <v>0.709</v>
       </c>
       <c r="R4" t="n">
         <v>10.9</v>
@@ -1084,7 +1151,7 @@
         <v>21.1</v>
       </c>
       <c r="V4" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W4" t="n">
         <v>7.6</v>
@@ -1093,7 +1160,7 @@
         <v>4.9</v>
       </c>
       <c r="Y4" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Z4" t="n">
         <v>22</v>
@@ -1102,13 +1169,13 @@
         <v>21</v>
       </c>
       <c r="AB4" t="n">
-        <v>96</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="AC4" t="n">
         <v>-4.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AE4" t="n">
         <v>23</v>
@@ -1120,7 +1187,7 @@
         <v>23</v>
       </c>
       <c r="AH4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI4" t="n">
         <v>26</v>
@@ -1129,7 +1196,7 @@
         <v>20</v>
       </c>
       <c r="AK4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL4" t="n">
         <v>16</v>
@@ -1159,7 +1226,7 @@
         <v>26</v>
       </c>
       <c r="AU4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AV4" t="n">
         <v>20</v>
@@ -1168,7 +1235,7 @@
         <v>12</v>
       </c>
       <c r="AX4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY4" t="n">
         <v>30</v>
@@ -1177,10 +1244,10 @@
         <v>22</v>
       </c>
       <c r="BA4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BB4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BC4" t="n">
         <v>22</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-31-2007-08</t>
+          <t>2008-03-31</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-2.8</v>
       </c>
       <c r="AD5" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="AE5" t="n">
         <v>22</v>
@@ -1305,7 +1372,7 @@
         <v>10</v>
       </c>
       <c r="AI5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ5" t="n">
         <v>5</v>
@@ -1323,13 +1390,13 @@
         <v>14</v>
       </c>
       <c r="AO5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP5" t="n">
         <v>16</v>
       </c>
       <c r="AQ5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AR5" t="n">
         <v>1</v>
@@ -1347,7 +1414,7 @@
         <v>15</v>
       </c>
       <c r="AW5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX5" t="n">
         <v>7</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-31-2007-08</t>
+          <t>2008-03-31</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>-0.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
@@ -1484,22 +1551,22 @@
         <v>13</v>
       </c>
       <c r="AH6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK6" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL6" t="n">
         <v>12</v>
       </c>
       <c r="AM6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN6" t="n">
         <v>15</v>
@@ -1517,13 +1584,13 @@
         <v>3</v>
       </c>
       <c r="AS6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT6" t="n">
         <v>2</v>
       </c>
       <c r="AU6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV6" t="n">
         <v>10</v>
@@ -1547,7 +1614,7 @@
         <v>20</v>
       </c>
       <c r="BC6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-31-2007-08</t>
+          <t>2008-03-31</t>
         </is>
       </c>
     </row>
@@ -1576,22 +1643,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E7" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F7" t="n">
         <v>28</v>
       </c>
       <c r="G7" t="n">
-        <v>0.622</v>
+        <v>0.616</v>
       </c>
       <c r="H7" t="n">
         <v>48.1</v>
       </c>
       <c r="I7" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="J7" t="n">
         <v>79</v>
@@ -1606,25 +1673,25 @@
         <v>17</v>
       </c>
       <c r="N7" t="n">
-        <v>0.351</v>
+        <v>0.352</v>
       </c>
       <c r="O7" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="P7" t="n">
-        <v>25.7</v>
+        <v>25.6</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.8120000000000001</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="R7" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="S7" t="n">
-        <v>32.3</v>
+        <v>32.4</v>
       </c>
       <c r="T7" t="n">
-        <v>43</v>
+        <v>43.2</v>
       </c>
       <c r="U7" t="n">
         <v>20.7</v>
@@ -1633,13 +1700,13 @@
         <v>13.1</v>
       </c>
       <c r="W7" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="X7" t="n">
         <v>5</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Z7" t="n">
         <v>22</v>
@@ -1648,13 +1715,13 @@
         <v>21.4</v>
       </c>
       <c r="AB7" t="n">
-        <v>100</v>
+        <v>100.1</v>
       </c>
       <c r="AC7" t="n">
         <v>4.3</v>
       </c>
       <c r="AD7" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AE7" t="n">
         <v>10</v>
@@ -1666,7 +1733,7 @@
         <v>10</v>
       </c>
       <c r="AH7" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AI7" t="n">
         <v>16</v>
@@ -1684,7 +1751,7 @@
         <v>20</v>
       </c>
       <c r="AN7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO7" t="n">
         <v>7</v>
@@ -1693,16 +1760,16 @@
         <v>12</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR7" t="n">
         <v>21</v>
       </c>
       <c r="AS7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AT7" t="n">
         <v>7</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>8</v>
       </c>
       <c r="AU7" t="n">
         <v>21</v>
@@ -1717,16 +1784,16 @@
         <v>11</v>
       </c>
       <c r="AY7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BA7" t="n">
         <v>14</v>
       </c>
       <c r="BB7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BC7" t="n">
         <v>9</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-31-2007-08</t>
+          <t>2008-03-31</t>
         </is>
       </c>
     </row>
@@ -1758,64 +1825,64 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E8" t="n">
         <v>45</v>
       </c>
       <c r="F8" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G8" t="n">
-        <v>0.608</v>
+        <v>0.616</v>
       </c>
       <c r="H8" t="n">
         <v>48.3</v>
       </c>
       <c r="I8" t="n">
-        <v>40.1</v>
+        <v>40</v>
       </c>
       <c r="J8" t="n">
-        <v>85.7</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="K8" t="n">
-        <v>0.468</v>
+        <v>0.467</v>
       </c>
       <c r="L8" t="n">
         <v>6.9</v>
       </c>
       <c r="M8" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="N8" t="n">
         <v>0.357</v>
       </c>
       <c r="O8" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="P8" t="n">
         <v>30.2</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.754</v>
+        <v>0.756</v>
       </c>
       <c r="R8" t="n">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="S8" t="n">
-        <v>32.5</v>
+        <v>32.6</v>
       </c>
       <c r="T8" t="n">
-        <v>43.9</v>
+        <v>44.1</v>
       </c>
       <c r="U8" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="V8" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W8" t="n">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="X8" t="n">
         <v>6.8</v>
@@ -1824,37 +1891,37 @@
         <v>4.9</v>
       </c>
       <c r="Z8" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="AA8" t="n">
         <v>23.6</v>
       </c>
       <c r="AB8" t="n">
-        <v>109.8</v>
+        <v>109.7</v>
       </c>
       <c r="AC8" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="AD8" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AE8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF8" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AH8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI8" t="n">
         <v>4</v>
       </c>
       <c r="AJ8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK8" t="n">
         <v>7</v>
@@ -1863,7 +1930,7 @@
         <v>13</v>
       </c>
       <c r="AM8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN8" t="n">
         <v>16</v>
@@ -1875,13 +1942,13 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AS8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT8" t="n">
         <v>5</v>
@@ -1890,7 +1957,7 @@
         <v>3</v>
       </c>
       <c r="AV8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW8" t="n">
         <v>1</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-31-2007-08</t>
+          <t>2008-03-31</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>7.1</v>
       </c>
       <c r="AD9" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="AE9" t="n">
         <v>2</v>
@@ -2048,7 +2115,7 @@
         <v>21</v>
       </c>
       <c r="AN9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO9" t="n">
         <v>19</v>
@@ -2063,25 +2130,25 @@
         <v>11</v>
       </c>
       <c r="AS9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AT9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV9" t="n">
         <v>1</v>
       </c>
       <c r="AW9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX9" t="n">
         <v>4</v>
       </c>
       <c r="AY9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ9" t="n">
         <v>11</v>
@@ -2090,7 +2157,7 @@
         <v>25</v>
       </c>
       <c r="BB9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC9" t="n">
         <v>2</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-31-2007-08</t>
+          <t>2008-03-31</t>
         </is>
       </c>
     </row>
@@ -2200,16 +2267,16 @@
         <v>3</v>
       </c>
       <c r="AD10" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="AE10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF10" t="n">
         <v>10</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH10" t="n">
         <v>17</v>
@@ -2230,7 +2297,7 @@
         <v>1</v>
       </c>
       <c r="AN10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO10" t="n">
         <v>13</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-31-2007-08</t>
+          <t>2008-03-31</t>
         </is>
       </c>
     </row>
@@ -2382,16 +2449,16 @@
         <v>4.3</v>
       </c>
       <c r="AD11" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="AE11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF11" t="n">
         <v>5</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH11" t="n">
         <v>24</v>
@@ -2400,7 +2467,7 @@
         <v>15</v>
       </c>
       <c r="AJ11" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AK11" t="n">
         <v>17</v>
@@ -2415,7 +2482,7 @@
         <v>27</v>
       </c>
       <c r="AO11" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AP11" t="n">
         <v>26</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-31-2007-08</t>
+          <t>2008-03-31</t>
         </is>
       </c>
     </row>
@@ -2486,25 +2553,25 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E12" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F12" t="n">
         <v>43</v>
       </c>
       <c r="G12" t="n">
-        <v>0.419</v>
+        <v>0.411</v>
       </c>
       <c r="H12" t="n">
         <v>48.2</v>
       </c>
       <c r="I12" t="n">
-        <v>37.9</v>
+        <v>38</v>
       </c>
       <c r="J12" t="n">
-        <v>85.59999999999999</v>
+        <v>85.7</v>
       </c>
       <c r="K12" t="n">
         <v>0.443</v>
@@ -2519,19 +2586,19 @@
         <v>0.374</v>
       </c>
       <c r="O12" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="P12" t="n">
         <v>24.6</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.772</v>
+        <v>0.77</v>
       </c>
       <c r="R12" t="n">
         <v>11.2</v>
       </c>
       <c r="S12" t="n">
-        <v>31.9</v>
+        <v>32</v>
       </c>
       <c r="T12" t="n">
         <v>43.2</v>
@@ -2543,7 +2610,7 @@
         <v>15</v>
       </c>
       <c r="W12" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="X12" t="n">
         <v>5</v>
@@ -2561,19 +2628,19 @@
         <v>104</v>
       </c>
       <c r="AC12" t="n">
-        <v>-1.8</v>
+        <v>-2.1</v>
       </c>
       <c r="AD12" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AE12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF12" t="n">
         <v>20</v>
       </c>
       <c r="AG12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH12" t="n">
         <v>22</v>
@@ -2582,7 +2649,7 @@
         <v>9</v>
       </c>
       <c r="AJ12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK12" t="n">
         <v>25</v>
@@ -2603,7 +2670,7 @@
         <v>18</v>
       </c>
       <c r="AQ12" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AR12" t="n">
         <v>17</v>
@@ -2612,10 +2679,10 @@
         <v>8</v>
       </c>
       <c r="AT12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AU12" t="n">
         <v>7</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>8</v>
       </c>
       <c r="AV12" t="n">
         <v>25</v>
@@ -2627,7 +2694,7 @@
         <v>12</v>
       </c>
       <c r="AY12" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AZ12" t="n">
         <v>29</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-31-2007-08</t>
+          <t>2008-03-31</t>
         </is>
       </c>
     </row>
@@ -2668,25 +2735,25 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E13" t="n">
         <v>22</v>
       </c>
       <c r="F13" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G13" t="n">
-        <v>0.297</v>
+        <v>0.301</v>
       </c>
       <c r="H13" t="n">
         <v>48.3</v>
       </c>
       <c r="I13" t="n">
-        <v>34.3</v>
+        <v>34.4</v>
       </c>
       <c r="J13" t="n">
-        <v>78.09999999999999</v>
+        <v>78.3</v>
       </c>
       <c r="K13" t="n">
         <v>0.439</v>
@@ -2698,31 +2765,31 @@
         <v>13.2</v>
       </c>
       <c r="N13" t="n">
-        <v>0.322</v>
+        <v>0.32</v>
       </c>
       <c r="O13" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="P13" t="n">
-        <v>26.9</v>
+        <v>26.8</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.787</v>
+        <v>0.786</v>
       </c>
       <c r="R13" t="n">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="S13" t="n">
         <v>30.2</v>
       </c>
       <c r="T13" t="n">
-        <v>39.8</v>
+        <v>39.7</v>
       </c>
       <c r="U13" t="n">
         <v>21.1</v>
       </c>
       <c r="V13" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="W13" t="n">
         <v>6.9</v>
@@ -2740,13 +2807,13 @@
         <v>21.9</v>
       </c>
       <c r="AB13" t="n">
-        <v>94</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="AC13" t="n">
         <v>-6.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AE13" t="n">
         <v>25</v>
@@ -2758,7 +2825,7 @@
         <v>25</v>
       </c>
       <c r="AH13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI13" t="n">
         <v>30</v>
@@ -2767,7 +2834,7 @@
         <v>28</v>
       </c>
       <c r="AK13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL13" t="n">
         <v>28</v>
@@ -2779,16 +2846,16 @@
         <v>29</v>
       </c>
       <c r="AO13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP13" t="n">
         <v>8</v>
       </c>
       <c r="AQ13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR13" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AS13" t="n">
         <v>18</v>
@@ -2797,7 +2864,7 @@
         <v>29</v>
       </c>
       <c r="AU13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AV13" t="n">
         <v>12</v>
@@ -2815,7 +2882,7 @@
         <v>18</v>
       </c>
       <c r="BA13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB13" t="n">
         <v>29</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-31-2007-08</t>
+          <t>2008-03-31</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>6.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE14" t="n">
         <v>4</v>
@@ -2940,7 +3007,7 @@
         <v>5</v>
       </c>
       <c r="AH14" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI14" t="n">
         <v>5</v>
@@ -2955,7 +3022,7 @@
         <v>5</v>
       </c>
       <c r="AM14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN14" t="n">
         <v>7</v>
@@ -2994,16 +3061,16 @@
         <v>13</v>
       </c>
       <c r="AZ14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB14" t="n">
         <v>4</v>
       </c>
       <c r="BC14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-31-2007-08</t>
+          <t>2008-03-31</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E15" t="n">
         <v>19</v>
       </c>
       <c r="F15" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G15" t="n">
-        <v>0.257</v>
+        <v>0.26</v>
       </c>
       <c r="H15" t="n">
         <v>48.3</v>
@@ -3053,7 +3120,7 @@
         <v>81.8</v>
       </c>
       <c r="K15" t="n">
-        <v>0.454</v>
+        <v>0.453</v>
       </c>
       <c r="L15" t="n">
         <v>7.4</v>
@@ -3065,37 +3132,37 @@
         <v>0.349</v>
       </c>
       <c r="O15" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="P15" t="n">
         <v>25.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.729</v>
+        <v>0.732</v>
       </c>
       <c r="R15" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="S15" t="n">
-        <v>31.2</v>
+        <v>31.3</v>
       </c>
       <c r="T15" t="n">
-        <v>41.5</v>
+        <v>41.6</v>
       </c>
       <c r="U15" t="n">
         <v>19.1</v>
       </c>
       <c r="V15" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="W15" t="n">
         <v>6.1</v>
       </c>
       <c r="X15" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y15" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z15" t="n">
         <v>19.6</v>
@@ -3107,10 +3174,10 @@
         <v>100.2</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.2</v>
+        <v>-6</v>
       </c>
       <c r="AD15" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3122,13 +3189,13 @@
         <v>28</v>
       </c>
       <c r="AH15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI15" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AJ15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK15" t="n">
         <v>15</v>
@@ -3143,22 +3210,22 @@
         <v>22</v>
       </c>
       <c r="AO15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP15" t="n">
         <v>14</v>
       </c>
       <c r="AQ15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR15" t="n">
         <v>22</v>
       </c>
       <c r="AS15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU15" t="n">
         <v>29</v>
@@ -3179,7 +3246,7 @@
         <v>5</v>
       </c>
       <c r="BA15" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BB15" t="n">
         <v>11</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-31-2007-08</t>
+          <t>2008-03-31</t>
         </is>
       </c>
     </row>
@@ -3214,46 +3281,46 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
       </c>
       <c r="F16" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G16" t="n">
-        <v>0.176</v>
+        <v>0.178</v>
       </c>
       <c r="H16" t="n">
         <v>48.4</v>
       </c>
       <c r="I16" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="J16" t="n">
-        <v>77.3</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="K16" t="n">
         <v>0.447</v>
       </c>
       <c r="L16" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="M16" t="n">
         <v>15.7</v>
       </c>
       <c r="N16" t="n">
-        <v>0.349</v>
+        <v>0.346</v>
       </c>
       <c r="O16" t="n">
         <v>17.3</v>
       </c>
       <c r="P16" t="n">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.725</v>
+        <v>0.726</v>
       </c>
       <c r="R16" t="n">
         <v>9.1</v>
@@ -3268,13 +3335,13 @@
         <v>20</v>
       </c>
       <c r="V16" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="W16" t="n">
         <v>7.2</v>
       </c>
       <c r="X16" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Y16" t="n">
         <v>4</v>
@@ -3283,16 +3350,16 @@
         <v>20.4</v>
       </c>
       <c r="AA16" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AB16" t="n">
-        <v>91.8</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="AC16" t="n">
-        <v>-8.699999999999999</v>
+        <v>-8.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AE16" t="n">
         <v>30</v>
@@ -3304,7 +3371,7 @@
         <v>30</v>
       </c>
       <c r="AH16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI16" t="n">
         <v>29</v>
@@ -3316,7 +3383,7 @@
         <v>22</v>
       </c>
       <c r="AL16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AM16" t="n">
         <v>24</v>
@@ -3346,13 +3413,13 @@
         <v>24</v>
       </c>
       <c r="AV16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW16" t="n">
         <v>16</v>
       </c>
       <c r="AX16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY16" t="n">
         <v>4</v>
@@ -3367,7 +3434,7 @@
         <v>30</v>
       </c>
       <c r="BC16" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-31-2007-08</t>
+          <t>2008-03-31</t>
         </is>
       </c>
     </row>
@@ -3498,7 +3565,7 @@
         <v>23</v>
       </c>
       <c r="AL17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM17" t="n">
         <v>22</v>
@@ -3522,7 +3589,7 @@
         <v>30</v>
       </c>
       <c r="AT17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU17" t="n">
         <v>20</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-31-2007-08</t>
+          <t>2008-03-31</t>
         </is>
       </c>
     </row>
@@ -3671,7 +3738,7 @@
         <v>29</v>
       </c>
       <c r="AI18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ18" t="n">
         <v>9</v>
@@ -3710,7 +3777,7 @@
         <v>26</v>
       </c>
       <c r="AV18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW18" t="n">
         <v>13</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-31-2007-08</t>
+          <t>2008-03-31</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-4.8</v>
       </c>
       <c r="AD19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE19" t="n">
         <v>20</v>
@@ -3850,7 +3917,7 @@
         <v>20</v>
       </c>
       <c r="AH19" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AI19" t="n">
         <v>28</v>
@@ -3877,7 +3944,7 @@
         <v>4</v>
       </c>
       <c r="AQ19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR19" t="n">
         <v>16</v>
@@ -3892,7 +3959,7 @@
         <v>6</v>
       </c>
       <c r="AV19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AW19" t="n">
         <v>25</v>
@@ -3907,7 +3974,7 @@
         <v>26</v>
       </c>
       <c r="BA19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB19" t="n">
         <v>25</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-31-2007-08</t>
+          <t>2008-03-31</t>
         </is>
       </c>
     </row>
@@ -4038,7 +4105,7 @@
         <v>6</v>
       </c>
       <c r="AJ20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK20" t="n">
         <v>8</v>
@@ -4059,10 +4126,10 @@
         <v>29</v>
       </c>
       <c r="AQ20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AS20" t="n">
         <v>15</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-31-2007-08</t>
+          <t>2008-03-31</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-6.9</v>
       </c>
       <c r="AD21" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="AE21" t="n">
         <v>26</v>
@@ -4235,7 +4302,7 @@
         <v>28</v>
       </c>
       <c r="AO21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP21" t="n">
         <v>11</v>
@@ -4244,7 +4311,7 @@
         <v>27</v>
       </c>
       <c r="AR21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS21" t="n">
         <v>22</v>
@@ -4265,7 +4332,7 @@
         <v>30</v>
       </c>
       <c r="AY21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ21" t="n">
         <v>19</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-31-2007-08</t>
+          <t>2008-03-31</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>4.8</v>
       </c>
       <c r="AD22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE22" t="n">
         <v>9</v>
@@ -4396,10 +4463,10 @@
         <v>9</v>
       </c>
       <c r="AH22" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ22" t="n">
         <v>26</v>
@@ -4438,7 +4505,7 @@
         <v>22</v>
       </c>
       <c r="AV22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AW22" t="n">
         <v>27</v>
@@ -4447,19 +4514,19 @@
         <v>25</v>
       </c>
       <c r="AY22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB22" t="n">
         <v>6</v>
       </c>
       <c r="BC22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-31-2007-08</t>
+          <t>2008-03-31</t>
         </is>
       </c>
     </row>
@@ -4566,10 +4633,10 @@
         <v>0.7</v>
       </c>
       <c r="AD23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF23" t="n">
         <v>17</v>
@@ -4578,7 +4645,7 @@
         <v>17</v>
       </c>
       <c r="AH23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI23" t="n">
         <v>10</v>
@@ -4599,7 +4666,7 @@
         <v>30</v>
       </c>
       <c r="AO23" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP23" t="n">
         <v>10</v>
@@ -4620,7 +4687,7 @@
         <v>23</v>
       </c>
       <c r="AV23" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW23" t="n">
         <v>4</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-31-2007-08</t>
+          <t>2008-03-31</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E24" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F24" t="n">
         <v>24</v>
       </c>
       <c r="G24" t="n">
-        <v>0.676</v>
+        <v>0.671</v>
       </c>
       <c r="H24" t="n">
         <v>48.3</v>
@@ -4688,49 +4755,49 @@
         <v>41.4</v>
       </c>
       <c r="J24" t="n">
-        <v>82.90000000000001</v>
+        <v>82.8</v>
       </c>
       <c r="K24" t="n">
-        <v>0.499</v>
+        <v>0.5</v>
       </c>
       <c r="L24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="M24" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.391</v>
+      </c>
+      <c r="O24" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="P24" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.784</v>
+      </c>
+      <c r="R24" t="n">
         <v>8.6</v>
       </c>
-      <c r="M24" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0.392</v>
-      </c>
-      <c r="O24" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="P24" t="n">
-        <v>24</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0.786</v>
-      </c>
-      <c r="R24" t="n">
-        <v>8.699999999999999</v>
-      </c>
       <c r="S24" t="n">
-        <v>32.4</v>
+        <v>32.3</v>
       </c>
       <c r="T24" t="n">
-        <v>41.1</v>
+        <v>41</v>
       </c>
       <c r="U24" t="n">
         <v>26.8</v>
       </c>
       <c r="V24" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="W24" t="n">
         <v>6.6</v>
       </c>
       <c r="X24" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="Y24" t="n">
         <v>3.8</v>
@@ -4742,31 +4809,31 @@
         <v>21</v>
       </c>
       <c r="AB24" t="n">
-        <v>110.2</v>
+        <v>109.9</v>
       </c>
       <c r="AC24" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AE24" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AF24" t="n">
         <v>5</v>
       </c>
       <c r="AG24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI24" t="n">
         <v>2</v>
       </c>
       <c r="AJ24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK24" t="n">
         <v>1</v>
@@ -4781,7 +4848,7 @@
         <v>3</v>
       </c>
       <c r="AO24" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AP24" t="n">
         <v>21</v>
@@ -4793,7 +4860,7 @@
         <v>30</v>
       </c>
       <c r="AS24" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AT24" t="n">
         <v>22</v>
@@ -4811,19 +4878,19 @@
         <v>2</v>
       </c>
       <c r="AY24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ24" t="n">
         <v>9</v>
       </c>
       <c r="BA24" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB24" t="n">
         <v>2</v>
       </c>
       <c r="BC24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-31-2007-08</t>
+          <t>2008-03-31</t>
         </is>
       </c>
     </row>
@@ -4930,19 +4997,19 @@
         <v>-0.8</v>
       </c>
       <c r="AD25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE25" t="n">
         <v>14</v>
       </c>
       <c r="AF25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI25" t="n">
         <v>25</v>
@@ -4984,7 +5051,7 @@
         <v>16</v>
       </c>
       <c r="AV25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW25" t="n">
         <v>30</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-31-2007-08</t>
+          <t>2008-03-31</t>
         </is>
       </c>
     </row>
@@ -5112,16 +5179,16 @@
         <v>-2.3</v>
       </c>
       <c r="AD26" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="AE26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF26" t="n">
         <v>18</v>
       </c>
       <c r="AG26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH26" t="n">
         <v>6</v>
@@ -5142,7 +5209,7 @@
         <v>19</v>
       </c>
       <c r="AN26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO26" t="n">
         <v>2</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-31-2007-08</t>
+          <t>2008-03-31</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>5</v>
       </c>
       <c r="AD27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE27" t="n">
         <v>3</v>
@@ -5306,7 +5373,7 @@
         <v>4</v>
       </c>
       <c r="AH27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI27" t="n">
         <v>24</v>
@@ -5324,7 +5391,7 @@
         <v>8</v>
       </c>
       <c r="AN27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO27" t="n">
         <v>26</v>
@@ -5345,7 +5412,7 @@
         <v>20</v>
       </c>
       <c r="AU27" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AV27" t="n">
         <v>4</v>
@@ -5363,7 +5430,7 @@
         <v>2</v>
       </c>
       <c r="BA27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB27" t="n">
         <v>24</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-31-2007-08</t>
+          <t>2008-03-31</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>-8.6</v>
       </c>
       <c r="AD28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE28" t="n">
         <v>29</v>
@@ -5488,7 +5555,7 @@
         <v>29</v>
       </c>
       <c r="AH28" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI28" t="n">
         <v>8</v>
@@ -5497,7 +5564,7 @@
         <v>4</v>
       </c>
       <c r="AK28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL28" t="n">
         <v>29</v>
@@ -5521,7 +5588,7 @@
         <v>10</v>
       </c>
       <c r="AS28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT28" t="n">
         <v>3</v>
@@ -5542,7 +5609,7 @@
         <v>26</v>
       </c>
       <c r="AZ28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA28" t="n">
         <v>26</v>
@@ -5551,7 +5618,7 @@
         <v>15</v>
       </c>
       <c r="BC28" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-31-2007-08</t>
+          <t>2008-03-31</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E29" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F29" t="n">
         <v>36</v>
       </c>
       <c r="G29" t="n">
-        <v>0.514</v>
+        <v>0.507</v>
       </c>
       <c r="H29" t="n">
         <v>48.3</v>
@@ -5604,22 +5671,22 @@
         <v>0.468</v>
       </c>
       <c r="L29" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="M29" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="N29" t="n">
-        <v>0.4</v>
+        <v>0.401</v>
       </c>
       <c r="O29" t="n">
-        <v>16.4</v>
+        <v>16.2</v>
       </c>
       <c r="P29" t="n">
-        <v>20.2</v>
+        <v>20</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.8110000000000001</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="R29" t="n">
         <v>9.5</v>
@@ -5637,19 +5704,19 @@
         <v>11.8</v>
       </c>
       <c r="W29" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="X29" t="n">
         <v>4</v>
       </c>
       <c r="Y29" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Z29" t="n">
         <v>19.6</v>
       </c>
       <c r="AA29" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="AB29" t="n">
         <v>100.1</v>
@@ -5658,25 +5725,25 @@
         <v>2.9</v>
       </c>
       <c r="AD29" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AE29" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AF29" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG29" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AH29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI29" t="n">
         <v>7</v>
       </c>
       <c r="AJ29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK29" t="n">
         <v>6</v>
@@ -5697,10 +5764,10 @@
         <v>30</v>
       </c>
       <c r="AQ29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AS29" t="n">
         <v>14</v>
@@ -5730,7 +5797,7 @@
         <v>29</v>
       </c>
       <c r="BB29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC29" t="n">
         <v>13</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-31-2007-08</t>
+          <t>2008-03-31</t>
         </is>
       </c>
     </row>
@@ -5762,67 +5829,67 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E30" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F30" t="n">
         <v>26</v>
       </c>
       <c r="G30" t="n">
-        <v>0.653</v>
+        <v>0.649</v>
       </c>
       <c r="H30" t="n">
         <v>48.1</v>
       </c>
       <c r="I30" t="n">
-        <v>40.2</v>
+        <v>40</v>
       </c>
       <c r="J30" t="n">
-        <v>80.5</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="K30" t="n">
-        <v>0.499</v>
+        <v>0.498</v>
       </c>
       <c r="L30" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="M30" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="N30" t="n">
-        <v>0.373</v>
+        <v>0.368</v>
       </c>
       <c r="O30" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="P30" t="n">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.758</v>
+        <v>0.757</v>
       </c>
       <c r="R30" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="S30" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="T30" t="n">
         <v>40.7</v>
       </c>
       <c r="U30" t="n">
-        <v>26.6</v>
+        <v>26.4</v>
       </c>
       <c r="V30" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W30" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="X30" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Y30" t="n">
         <v>5.2</v>
@@ -5831,19 +5898,19 @@
         <v>24.3</v>
       </c>
       <c r="AA30" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="AB30" t="n">
-        <v>107</v>
+        <v>106.7</v>
       </c>
       <c r="AC30" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
       </c>
       <c r="AE30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF30" t="n">
         <v>8</v>
@@ -5870,7 +5937,7 @@
         <v>27</v>
       </c>
       <c r="AN30" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AO30" t="n">
         <v>3</v>
@@ -5900,22 +5967,22 @@
         <v>3</v>
       </c>
       <c r="AX30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AY30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ30" t="n">
         <v>30</v>
       </c>
       <c r="BA30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB30" t="n">
         <v>5</v>
       </c>
       <c r="BC30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-31-2007-08</t>
+          <t>2008-03-31</t>
         </is>
       </c>
     </row>
@@ -5944,31 +6011,31 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E31" t="n">
         <v>38</v>
       </c>
       <c r="F31" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G31" t="n">
-        <v>0.514</v>
+        <v>0.521</v>
       </c>
       <c r="H31" t="n">
         <v>48.6</v>
       </c>
       <c r="I31" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="J31" t="n">
-        <v>81.7</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K31" t="n">
         <v>0.444</v>
       </c>
       <c r="L31" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="M31" t="n">
         <v>19.5</v>
@@ -5983,16 +6050,16 @@
         <v>24.4</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.787</v>
+        <v>0.786</v>
       </c>
       <c r="R31" t="n">
         <v>12.1</v>
       </c>
       <c r="S31" t="n">
-        <v>29.3</v>
+        <v>29.5</v>
       </c>
       <c r="T31" t="n">
-        <v>41.4</v>
+        <v>41.6</v>
       </c>
       <c r="U31" t="n">
         <v>19.4</v>
@@ -6016,13 +6083,13 @@
         <v>20.3</v>
       </c>
       <c r="AB31" t="n">
-        <v>98.59999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="AC31" t="n">
-        <v>-0.6</v>
+        <v>0</v>
       </c>
       <c r="AD31" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AE31" t="n">
         <v>14</v>
@@ -6037,10 +6104,10 @@
         <v>1</v>
       </c>
       <c r="AI31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ31" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AK31" t="n">
         <v>24</v>
@@ -6061,16 +6128,16 @@
         <v>19</v>
       </c>
       <c r="AQ31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR31" t="n">
         <v>9</v>
       </c>
       <c r="AS31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AT31" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AU31" t="n">
         <v>27</v>
@@ -6091,13 +6158,13 @@
         <v>6</v>
       </c>
       <c r="BA31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB31" t="n">
         <v>14</v>
       </c>
       <c r="BC31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-31-2007-08</t>
+          <t>2008-03-31</t>
         </is>
       </c>
     </row>
